--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H2">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I2">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J2">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N2">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O2">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P2">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q2">
-        <v>0.000233398194</v>
+        <v>0.2365766579626667</v>
       </c>
       <c r="R2">
-        <v>0.002100583746</v>
+        <v>2.129189921664</v>
       </c>
       <c r="S2">
-        <v>3.418351805470519E-10</v>
+        <v>1.931961364613955E-07</v>
       </c>
       <c r="T2">
-        <v>3.418351805470519E-10</v>
+        <v>1.931961364613955E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H3">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I3">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J3">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N3">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O3">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P3">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q3">
-        <v>0.02651855680977777</v>
+        <v>4.117320551482667</v>
       </c>
       <c r="R3">
-        <v>0.2386670112879999</v>
+        <v>37.055884963344</v>
       </c>
       <c r="S3">
-        <v>3.883909939302117E-08</v>
+        <v>3.36233688466882E-06</v>
       </c>
       <c r="T3">
-        <v>3.883909939302117E-08</v>
+        <v>3.36233688466882E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H4">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I4">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J4">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N4">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O4">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P4">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q4">
-        <v>0.1335295810675556</v>
+        <v>41.21913854487867</v>
       </c>
       <c r="R4">
-        <v>1.201766229608</v>
+        <v>370.9722469039081</v>
       </c>
       <c r="S4">
-        <v>1.95567530623652E-07</v>
+        <v>3.366087924191668E-05</v>
       </c>
       <c r="T4">
-        <v>1.95567530623652E-07</v>
+        <v>3.366087924191668E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H5">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I5">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J5">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N5">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O5">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P5">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q5">
-        <v>0.004793990990666666</v>
+        <v>0.23890330412</v>
       </c>
       <c r="R5">
-        <v>0.043145918916</v>
+        <v>2.15012973708</v>
       </c>
       <c r="S5">
-        <v>7.021283017449056E-09</v>
+        <v>1.950961508262129E-07</v>
       </c>
       <c r="T5">
-        <v>7.021283017449056E-09</v>
+        <v>1.950961508262129E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H6">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I6">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J6">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N6">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O6">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P6">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q6">
-        <v>6.587077314662445</v>
+        <v>1433.006998871431</v>
       </c>
       <c r="R6">
-        <v>59.28369583196201</v>
+        <v>12897.06298984288</v>
       </c>
       <c r="S6">
-        <v>9.647438673561573E-06</v>
+        <v>0.001170239778041791</v>
       </c>
       <c r="T6">
-        <v>9.647438673561573E-06</v>
+        <v>0.001170239778041791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H7">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I7">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J7">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N7">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O7">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P7">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q7">
-        <v>0.100886188394</v>
+        <v>11.07153754562267</v>
       </c>
       <c r="R7">
-        <v>0.9079756955460001</v>
+        <v>99.64383791060401</v>
       </c>
       <c r="S7">
-        <v>1.477579917536418E-07</v>
+        <v>9.041374989916062E-06</v>
       </c>
       <c r="T7">
-        <v>1.477579917536418E-07</v>
+        <v>9.041374989916062E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H8">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I8">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J8">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N8">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O8">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P8">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q8">
-        <v>2.096861643738</v>
+        <v>22.24064331664</v>
       </c>
       <c r="R8">
-        <v>18.871754793642</v>
+        <v>200.16578984976</v>
       </c>
       <c r="S8">
-        <v>3.071065230990465E-06</v>
+        <v>1.816242734255241E-05</v>
       </c>
       <c r="T8">
-        <v>3.071065230990464E-06</v>
+        <v>1.81624273425524E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H9">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I9">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J9">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N9">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O9">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P9">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q9">
-        <v>238.2441083571973</v>
+        <v>387.07055292094</v>
       </c>
       <c r="R9">
-        <v>2144.196975214776</v>
+        <v>3483.63497628846</v>
       </c>
       <c r="S9">
-        <v>0.0003489325105684148</v>
+        <v>0.0003160943095835879</v>
       </c>
       <c r="T9">
-        <v>0.0003489325105684148</v>
+        <v>0.0003160943095835879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H10">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I10">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J10">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N10">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O10">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P10">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q10">
-        <v>1199.636775445491</v>
+        <v>3875.023707285955</v>
       </c>
       <c r="R10">
-        <v>10796.73097900942</v>
+        <v>34875.2133655736</v>
       </c>
       <c r="S10">
-        <v>0.001756988975352965</v>
+        <v>0.003164469459459946</v>
       </c>
       <c r="T10">
-        <v>0.001756988975352965</v>
+        <v>0.003164469459459945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H11">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I11">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J11">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N11">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O11">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P11">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q11">
-        <v>43.069467061748</v>
+        <v>22.45937202705</v>
       </c>
       <c r="R11">
-        <v>387.625203555732</v>
+        <v>202.13434824345</v>
       </c>
       <c r="S11">
-        <v>6.307957571050414E-05</v>
+        <v>1.834104826884457E-05</v>
       </c>
       <c r="T11">
-        <v>6.307957571050414E-05</v>
+        <v>1.834104826884457E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H12">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I12">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J12">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N12">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O12">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P12">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q12">
-        <v>59178.64885215172</v>
+        <v>134717.4222791569</v>
       </c>
       <c r="R12">
-        <v>532607.8396693656</v>
+        <v>1212456.800512412</v>
       </c>
       <c r="S12">
-        <v>0.08667309617188329</v>
+        <v>0.1100145962095663</v>
       </c>
       <c r="T12">
-        <v>0.08667309617188328</v>
+        <v>0.1100145962095662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H13">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I13">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J13">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N13">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O13">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P13">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q13">
-        <v>906.366819729138</v>
+        <v>1040.838600221665</v>
       </c>
       <c r="R13">
-        <v>8157.301377562242</v>
+        <v>9367.547401994985</v>
       </c>
       <c r="S13">
-        <v>0.001327465564981909</v>
+        <v>0.0008499824030587387</v>
       </c>
       <c r="T13">
-        <v>0.001327465564981909</v>
+        <v>0.0008499824030587386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H14">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I14">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J14">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N14">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O14">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P14">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q14">
-        <v>19.202410967892</v>
+        <v>160.6142399479395</v>
       </c>
       <c r="R14">
-        <v>172.821698711028</v>
+        <v>1445.528159531456</v>
       </c>
       <c r="S14">
-        <v>2.812386637468176E-05</v>
+        <v>0.0001311627735629024</v>
       </c>
       <c r="T14">
-        <v>2.812386637468176E-05</v>
+        <v>0.0001311627735629024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H15">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I15">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J15">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N15">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O15">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P15">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q15">
-        <v>2181.765922904886</v>
+        <v>2795.289766511019</v>
       </c>
       <c r="R15">
-        <v>19635.89330614398</v>
+        <v>25157.60789859918</v>
       </c>
       <c r="S15">
-        <v>0.003195416105780138</v>
+        <v>0.002282723865620027</v>
       </c>
       <c r="T15">
-        <v>0.003195416105780138</v>
+        <v>0.002282723865620027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H16">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I16">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J16">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N16">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O16">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P16">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q16">
-        <v>10985.90288162064</v>
+        <v>27984.08205487139</v>
       </c>
       <c r="R16">
-        <v>98873.12593458574</v>
+        <v>251856.7384938425</v>
       </c>
       <c r="S16">
-        <v>0.01608996209718387</v>
+        <v>0.02285270483562664</v>
       </c>
       <c r="T16">
-        <v>0.01608996209718387</v>
+        <v>0.02285270483562664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H17">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I17">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J17">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N17">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O17">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P17">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q17">
-        <v>394.4168701628986</v>
+        <v>162.1938231046466</v>
       </c>
       <c r="R17">
-        <v>3549.751831466087</v>
+        <v>1459.74440794182</v>
       </c>
       <c r="S17">
-        <v>0.0005776632617086042</v>
+        <v>0.000132452712163453</v>
       </c>
       <c r="T17">
-        <v>0.0005776632617086041</v>
+        <v>0.000132452712163453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H18">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I18">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J18">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N18">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O18">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P18">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q18">
-        <v>541939.7789917204</v>
+        <v>972882.6670640247</v>
       </c>
       <c r="R18">
-        <v>4877458.010925484</v>
+        <v>8755944.003576223</v>
       </c>
       <c r="S18">
-        <v>0.7937254312998847</v>
+        <v>0.7944873941734718</v>
       </c>
       <c r="T18">
-        <v>0.7937254312998846</v>
+        <v>0.7944873941734718</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H19">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I19">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J19">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N19">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O19">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P19">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q19">
-        <v>8300.227252511491</v>
+        <v>7516.576670154329</v>
       </c>
       <c r="R19">
-        <v>74702.04527260343</v>
+        <v>67649.19003138896</v>
       </c>
       <c r="S19">
-        <v>0.01215651943495255</v>
+        <v>0.006138279171729782</v>
       </c>
       <c r="T19">
-        <v>0.01215651943495255</v>
+        <v>0.006138279171729783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H20">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I20">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J20">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N20">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O20">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P20">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q20">
-        <v>1.954352216241</v>
+        <v>11.35095389261511</v>
       </c>
       <c r="R20">
-        <v>17.589169946169</v>
+        <v>102.158585033536</v>
       </c>
       <c r="S20">
-        <v>2.862345810144844E-06</v>
+        <v>9.2695553994627E-06</v>
       </c>
       <c r="T20">
-        <v>2.862345810144843E-06</v>
+        <v>9.2695553994627E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H21">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I21">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J21">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N21">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O21">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P21">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q21">
-        <v>222.0522763458146</v>
+        <v>197.5491417600951</v>
       </c>
       <c r="R21">
-        <v>1998.470487112332</v>
+        <v>1777.942275840856</v>
       </c>
       <c r="S21">
-        <v>0.0003252179405276607</v>
+        <v>0.0001613250067778779</v>
       </c>
       <c r="T21">
-        <v>0.0003252179405276607</v>
+        <v>0.0001613250067778779</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H22">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I22">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J22">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N22">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O22">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P22">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q22">
-        <v>1118.105621216202</v>
+        <v>1977.695285517416</v>
       </c>
       <c r="R22">
-        <v>10062.95059094581</v>
+        <v>17799.25756965674</v>
       </c>
       <c r="S22">
-        <v>0.001637578382029443</v>
+        <v>0.001615049817468368</v>
       </c>
       <c r="T22">
-        <v>0.001637578382029442</v>
+        <v>0.001615049817468368</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H23">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I23">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J23">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N23">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O23">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P23">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q23">
-        <v>40.142328253186</v>
+        <v>11.46258643271333</v>
       </c>
       <c r="R23">
-        <v>361.280954278674</v>
+        <v>103.16327789442</v>
       </c>
       <c r="S23">
-        <v>5.879248588361768E-05</v>
+        <v>9.36071813561798E-06</v>
       </c>
       <c r="T23">
-        <v>5.879248588361767E-05</v>
+        <v>9.36071813561798E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H24">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I24">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J24">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N24">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O24">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P24">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q24">
-        <v>55156.67849795515</v>
+        <v>68755.71120186862</v>
       </c>
       <c r="R24">
-        <v>496410.1064815963</v>
+        <v>618801.4008168177</v>
       </c>
       <c r="S24">
-        <v>0.08078251519257341</v>
+        <v>0.05614813345597564</v>
       </c>
       <c r="T24">
-        <v>0.0807825151925734</v>
+        <v>0.05614813345597564</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H25">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I25">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J25">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N25">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O25">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P25">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q25">
-        <v>844.7672301865412</v>
+        <v>531.212644911705</v>
       </c>
       <c r="R25">
-        <v>7602.90507167887</v>
+        <v>4780.913804205346</v>
       </c>
       <c r="S25">
-        <v>0.001237246757149497</v>
+        <v>0.0004338053953428322</v>
       </c>
       <c r="T25">
-        <v>0.001237246757149497</v>
+        <v>0.0004338053953428323</v>
       </c>
     </row>
   </sheetData>
